--- a/pesos_agrupados.xlsx
+++ b/pesos_agrupados.xlsx
@@ -67,13 +67,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="18.700000000000003"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="26.400000000000002"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="7.700000000000001"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="7.700000000000001"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="7.700000000000001"/>
@@ -89,260 +89,157 @@
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>12.11.2019 10:40</t>
+          <t>12.11.2019 11:46</t>
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>64.56</v>
+        <v>65.68</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>65.5</v>
+        <v>65.27</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>65.32</v>
+        <v>65.52</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>65.65</v>
+        <v>65.01</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>65.31</v>
+        <v>65.26</v>
       </c>
       <c r="G1" s="0" t="n">
-        <v>65.02</v>
+        <v>66.46</v>
       </c>
       <c r="H1" s="0" t="n">
-        <v>65.02</v>
+        <v>65.15</v>
       </c>
       <c r="I1" s="0" t="n">
-        <v>66.76</v>
+        <v>64.77</v>
       </c>
       <c r="J1" s="0" t="n">
+        <v>65.05</v>
+      </c>
+      <c r="K1" s="0" t="n">
         <v>65.29</v>
-      </c>
-      <c r="K1" s="0" t="n">
-        <v>64.69</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>12.11.2019 11:13</t>
+          <t>12.11.2019 12:14</t>
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>64.79</v>
+        <v>65.38</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>64.95</v>
+        <v>65.28</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>65.07</v>
+        <v>64.96</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>65.09</v>
+        <v>65.4</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>65.47</v>
+        <v>65.22</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>65.94</v>
+        <v>66.02</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>65.05</v>
+        <v>65.35</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>65.34</v>
+        <v>65.52</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>64.52</v>
+        <v>65.69</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>64.59</v>
+        <v>63.64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>12.11.2019 11:46</t>
+          <t>12.11.2019 12:40</t>
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>65.68</v>
+        <v>65.17</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>65.27</v>
+        <v>64.69</v>
       </c>
       <c r="D3" s="0" t="n">
+        <v>65.16</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>65.24</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>65.28</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>65.05</v>
+      </c>
+      <c r="H3" s="0" t="n">
         <v>65.52</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>65.01</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>65.26</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>66.46</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>65.15</v>
-      </c>
       <c r="I3" s="0" t="n">
-        <v>64.77</v>
+        <v>65.42</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>65.05</v>
+        <v>65.3</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>65.29</v>
+        <v>65.16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>12.11.2019 12:14</t>
+          <t>12.11.2019 13:11</t>
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>65.38</v>
+        <v>64.45</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>65.28</v>
+        <v>64.96</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>64.96</v>
+        <v>65.31</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>65.4</v>
+        <v>65.66</v>
       </c>
       <c r="F4" s="0" t="n">
+        <v>64.95</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>65.32</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>65.07</v>
+      </c>
+      <c r="I4" s="0" t="n">
         <v>65.22</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <v>66.02</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>65.35</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>65.52</v>
-      </c>
       <c r="J4" s="0" t="n">
-        <v>65.69</v>
+        <v>65.17</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>63.64</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>12.11.2019 12:40</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>65.17</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>64.69</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>65.16</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>65.24</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>65.28</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>65.05</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>65.52</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>65.42</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>65.16</v>
-      </c>
-    </row>
+        <v>65.56</v>
+      </c>
+    </row>
+    <row r="5"/>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>12.11.2019 13:11</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>64.45</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>64.96</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>65.31</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>65.66</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>64.95</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>65.32</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>65.07</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>65.22</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>65.17</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>65.56</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>12.11.2019 13:41</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>65.44</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>65.13</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>66.73</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>66.22</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>64.77</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>64.79</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>65.4</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>64.98</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>65.22</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>65.36</v>
+          <t>Powered by Nera Technology</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/pesos_agrupados.xlsx
+++ b/pesos_agrupados.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -89,154 +89,191 @@
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>12.11.2019 11:46</t>
+          <t>12.11.2019 10:12</t>
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>65.68</v>
+        <v>64.19</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>65.27</v>
+        <v>64.7</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>65.52</v>
+        <v>64.87</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>65.01</v>
+        <v>64.39</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>65.26</v>
+        <v>65.69</v>
       </c>
       <c r="G1" s="0" t="n">
-        <v>66.46</v>
+        <v>65.03</v>
       </c>
       <c r="H1" s="0" t="n">
-        <v>65.15</v>
+        <v>64.47</v>
       </c>
       <c r="I1" s="0" t="n">
-        <v>64.77</v>
+        <v>63.84</v>
       </c>
       <c r="J1" s="0" t="n">
-        <v>65.05</v>
+        <v>64.26</v>
       </c>
       <c r="K1" s="0" t="n">
-        <v>65.29</v>
+        <v>64.76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>12.11.2019 12:14</t>
+          <t>12.11.2019 10:40</t>
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>65.38</v>
+        <v>64.56</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>65.28</v>
+        <v>65.5</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>64.96</v>
+        <v>65.32</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>65.4</v>
+        <v>65.65</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>65.22</v>
+        <v>65.31</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>66.02</v>
+        <v>65.02</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>65.35</v>
+        <v>65.02</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>65.52</v>
+        <v>66.76</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>65.69</v>
+        <v>65.29</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>63.64</v>
+        <v>64.69</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>12.11.2019 12:40</t>
+          <t>12.11.2019 11:13</t>
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>65.17</v>
+        <v>64.79</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>64.69</v>
+        <v>64.95</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>65.16</v>
+        <v>65.07</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>65.24</v>
+        <v>65.09</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>65.28</v>
+        <v>65.47</v>
       </c>
       <c r="G3" s="0" t="n">
+        <v>65.94</v>
+      </c>
+      <c r="H3" s="0" t="n">
         <v>65.05</v>
       </c>
-      <c r="H3" s="0" t="n">
-        <v>65.52</v>
-      </c>
       <c r="I3" s="0" t="n">
-        <v>65.42</v>
+        <v>65.34</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>65.3</v>
+        <v>64.52</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>65.16</v>
+        <v>64.59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>12.11.2019 13:11</t>
+          <t>12.11.2019 11:46</t>
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>64.45</v>
+        <v>65.68</v>
       </c>
       <c r="C4" s="0" t="n">
+        <v>65.27</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>65.52</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>65.01</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>65.26</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>66.46</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>65.15</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>64.77</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>65.05</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>65.29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>12.11.2019 12:14</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>65.38</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>65.28</v>
+      </c>
+      <c r="D5" s="0" t="n">
         <v>64.96</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>65.31</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>65.66</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>64.95</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>65.32</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>65.07</v>
-      </c>
-      <c r="I4" s="0" t="n">
+      <c r="E5" s="0" t="n">
+        <v>65.4</v>
+      </c>
+      <c r="F5" s="0" t="n">
         <v>65.22</v>
       </c>
-      <c r="J4" s="0" t="n">
-        <v>65.17</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>65.56</v>
-      </c>
-    </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
+      <c r="G5" s="0" t="n">
+        <v>66.02</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>65.35</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>65.52</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>65.69</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>63.64</v>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>Powered by Nera Technology</t>
         </is>
